--- a/biology/Zoologie/Insectia/Insectia.xlsx
+++ b/biology/Zoologie/Insectia/Insectia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Insectia est une série documentaire franco-canadienne en 26 épisodes de 26 minutes coproduite par Cinétévé, Pixcom et La Cinquième, présentée par Georges Brossard et diffusée à partir du 4 février 1999 sur Discovery Channel. En France, elle est diffusée à partir du 31 mai 1999 sur La Cinquième dans le cadre du programme Le Monde des animaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entomologiste Georges Brossard part à la découverte des insectes aux quatre coins du monde. 
 </t>
@@ -539,41 +553,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Saison 1
-Saison 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Insectia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Insectia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Auteurs : Denis Blaquière et Georges Brossard
 Réalisateur : German Gutierrez
@@ -584,31 +569,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Insectia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Insectia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Gémeaux de la meilleure série documentaire en 1999.</t>
         </is>
